--- a/examples/sources/data/unsolved/to_schedule/2019-04-04.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-04.xlsx
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O126" s="2">
         <v>43559</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -7924,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O164" s="2">
         <v>43559</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176">
         <v>1</v>
